--- a/data/trans_dic/P25A$rendimiento-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P25A$rendimiento-Dificultad-trans_dic.xlsx
@@ -675,13 +675,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.007429036552487032</v>
+        <v>0.007486625004953219</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.004771393584513545</v>
+        <v>0.005254506784407927</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04370750652925928</v>
+        <v>0.04497227751242026</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
@@ -690,16 +690,16 @@
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03247720630923139</v>
+        <v>0.03205769148537365</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.009722627756836922</v>
+        <v>0.009916477764186275</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.009992348789749769</v>
+        <v>0.009744061842981532</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.05012187552790257</v>
+        <v>0.05015059658492767</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06999245779030809</v>
+        <v>0.07585117367716114</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05844205218974018</v>
+        <v>0.06012889796055852</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1303789502649527</v>
+        <v>0.1314066601758491</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.09695626631307411</v>
+        <v>0.1078530926284271</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.09501580295103122</v>
+        <v>0.0996551582779529</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1456095016919575</v>
+        <v>0.1447475109151988</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.05498990029737243</v>
+        <v>0.06137505713096964</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.05404103724686764</v>
+        <v>0.05154423030426549</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1151083381953041</v>
+        <v>0.115495474326628</v>
       </c>
     </row>
     <row r="7">
@@ -784,16 +784,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.008662453627041357</v>
+        <v>0.008664824096379333</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01516214475792995</v>
+        <v>0.01362775984243065</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02915367288641395</v>
+        <v>0.02958010837971172</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02749144200683345</v>
+        <v>0.02767133940312135</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
@@ -802,13 +802,13 @@
         <v>0</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01864481207499983</v>
+        <v>0.0208826511722351</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01343843082758517</v>
+        <v>0.01445966247243837</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02147770498491808</v>
+        <v>0.0225943333873807</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05344574621162954</v>
+        <v>0.0556813172741179</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06472268960489304</v>
+        <v>0.06250917054426652</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1005484441527204</v>
+        <v>0.1007967448083932</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1618146191941775</v>
+        <v>0.1702294034094955</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05523681718952023</v>
+        <v>0.05119336398155023</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05106462622497589</v>
+        <v>0.05271257896333904</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.06486053858214878</v>
+        <v>0.06685545240972347</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.04638068161567594</v>
+        <v>0.05064101074386254</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.07410986193955024</v>
+        <v>0.0713198747826085</v>
       </c>
     </row>
     <row r="10">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02496159740979455</v>
+        <v>0.02586801057549466</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03378928532169689</v>
+        <v>0.03307492322038873</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01057804418409859</v>
+        <v>0.0104822573675537</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01116937387865833</v>
+        <v>0.01092992398017036</v>
       </c>
       <c r="H11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02429721948087663</v>
+        <v>0.02500549787645675</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03374226360718146</v>
+        <v>0.0334658824351636</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>0</v>
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.08337156096886859</v>
+        <v>0.08304796508067049</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.09381424464372046</v>
+        <v>0.09190949674235796</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03199648883430167</v>
+        <v>0.02994569881024597</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.09175658801646852</v>
+        <v>0.09467144156882355</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1165022181781878</v>
+        <v>0.1034071273612533</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.06492210724426355</v>
+        <v>0.07581902396948585</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.07138328045430281</v>
+        <v>0.07039580413126524</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.08323849503808337</v>
+        <v>0.08302644412382197</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02767498801184445</v>
+        <v>0.03121383718958885</v>
       </c>
     </row>
     <row r="13">
@@ -1005,28 +1005,28 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.007918516349107356</v>
+        <v>0.008163470679597834</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01838255280890542</v>
+        <v>0.02113837413033801</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02281936230607607</v>
+        <v>0.02290933708526104</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01775941722023092</v>
+        <v>0.01861412643878959</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04043315777831552</v>
+        <v>0.04121074653331343</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.009366030846973581</v>
+        <v>0.009148821132035129</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01250268447692634</v>
+        <v>0.01339480178823248</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.0369949901357576</v>
+        <v>0.03729985242798936</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06766405647074622</v>
+        <v>0.06037178302189311</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0709007877692652</v>
+        <v>0.07752911699575026</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1397758381221337</v>
+        <v>0.1360757270280356</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2260522728122633</v>
+        <v>0.2357723054940858</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1738862083183788</v>
+        <v>0.1696429864058585</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1836358007674322</v>
+        <v>0.1825524604598335</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.089310097200229</v>
+        <v>0.08562013428436763</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.07406960284409093</v>
+        <v>0.084175532408118</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1220359413041729</v>
+        <v>0.1188000360944673</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01980724181633698</v>
+        <v>0.02029313379460681</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02550619799097089</v>
+        <v>0.02495665924499104</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03446912696991147</v>
+        <v>0.03330418816700476</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02876027775385101</v>
+        <v>0.02804386392118416</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01654414878882798</v>
+        <v>0.01641913124542282</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02710986058281041</v>
+        <v>0.02745049722721882</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02689087244162309</v>
+        <v>0.02585229484619248</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02579129921806663</v>
+        <v>0.02637236577659163</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03583482650000427</v>
+        <v>0.03527744516966075</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0488313152591912</v>
+        <v>0.04756610503740453</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05428922226372239</v>
+        <v>0.05286676970701547</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.06866713825627241</v>
+        <v>0.07165667198794408</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.08658836383040351</v>
+        <v>0.08854338311676377</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.05589638926768579</v>
+        <v>0.05791790206618871</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.07037694517662203</v>
+        <v>0.0747154124852856</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.05199505759565217</v>
+        <v>0.05094439751236409</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.0479906603480908</v>
+        <v>0.05006291901082058</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.06470013031179123</v>
+        <v>0.06468527263891222</v>
       </c>
     </row>
     <row r="19">
@@ -1399,13 +1399,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>932</v>
+        <v>939</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1019</v>
+        <v>1122</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>7881</v>
+        <v>8109</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
@@ -1414,16 +1414,16 @@
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3007</v>
+        <v>2968</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1723</v>
+        <v>1757</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3265</v>
+        <v>3184</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>13677</v>
+        <v>13685</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>8781</v>
+        <v>9516</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>12481</v>
+        <v>12841</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>23507</v>
+        <v>23693</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>5019</v>
+        <v>5583</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>10758</v>
+        <v>11284</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>13481</v>
+        <v>13401</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>9745</v>
+        <v>10877</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>17660</v>
+        <v>16844</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>31411</v>
+        <v>31517</v>
       </c>
     </row>
     <row r="8">
@@ -1543,16 +1543,16 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3900</v>
+        <v>3506</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>4708</v>
+        <v>4777</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1937</v>
+        <v>1950</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
@@ -1561,13 +1561,13 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>4986</v>
+        <v>5584</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>5149</v>
+        <v>5540</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>5466</v>
+        <v>5750</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>10526</v>
+        <v>10966</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>16649</v>
+        <v>16080</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>16238</v>
+        <v>16278</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>11402</v>
+        <v>11995</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>6955</v>
+        <v>6446</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>4749</v>
+        <v>4902</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>17345</v>
+        <v>17878</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>17771</v>
+        <v>19404</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>18860</v>
+        <v>18150</v>
       </c>
     </row>
     <row r="12">
@@ -1687,28 +1687,28 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>5442</v>
+        <v>5640</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>7952</v>
+        <v>7784</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1092</v>
+        <v>1069</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>7402</v>
+        <v>7618</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>11240</v>
+        <v>11148</v>
       </c>
       <c r="K14" s="6" t="n">
         <v>0</v>
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>18176</v>
+        <v>18106</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>22078</v>
+        <v>21629</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4971</v>
+        <v>4652</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>7950</v>
+        <v>8202</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>11391</v>
+        <v>10110</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>5266</v>
+        <v>6150</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>21747</v>
+        <v>21446</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>27727</v>
+        <v>27656</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>6544</v>
+        <v>7381</v>
       </c>
     </row>
     <row r="16">
@@ -1834,28 +1834,28 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>821</v>
+        <v>846</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1906</v>
+        <v>2192</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>865</v>
+        <v>907</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2674</v>
+        <v>2726</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1063</v>
+        <v>1039</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1905</v>
+        <v>2041</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>6283</v>
+        <v>6334</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>5268</v>
+        <v>4700</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>7351</v>
+        <v>8039</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>14492</v>
+        <v>14109</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>8064</v>
+        <v>8410</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>8471</v>
+        <v>8264</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>12146</v>
+        <v>12074</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>10139</v>
+        <v>9720</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>11288</v>
+        <v>12829</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>20724</v>
+        <v>20175</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>12246</v>
+        <v>12547</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>20656</v>
+        <v>20210</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>20710</v>
+        <v>20010</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>7033</v>
+        <v>6858</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>6380</v>
+        <v>6332</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>9023</v>
+        <v>9136</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>23202</v>
+        <v>22306</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>30832</v>
+        <v>31527</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>33457</v>
+        <v>32937</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>30191</v>
+        <v>29409</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>43965</v>
+        <v>42813</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>41257</v>
+        <v>43053</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>21175</v>
+        <v>21653</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>21555</v>
+        <v>22335</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>23423</v>
+        <v>24867</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>44862</v>
+        <v>43955</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>57371</v>
+        <v>59848</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>60408</v>
+        <v>60394</v>
       </c>
     </row>
     <row r="24">
